--- a/src/main/java/com/webdrivertest/testdata/testdata.xlsx
+++ b/src/main/java/com/webdrivertest/testdata/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bobit/Documents/workspace/com.webdrivertest/src/main/java/com/webdrivertest/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bobit/Documents/workspace/WebdriverTestCases/src/main/java/com/webdrivertest/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F357A571-5BDB-DE48-8091-98C4338694A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53457092-4DE7-5844-8EB7-6722BF8C74BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42880" yWindow="1660" windowWidth="28040" windowHeight="17440" xr2:uid="{08239631-BBE2-7D40-B274-EED5E0584E31}"/>
   </bookViews>
